--- a/semester 3/ais/accounting/assignment/solve_ais.xlsx
+++ b/semester 3/ais/accounting/assignment/solve_ais.xlsx
@@ -8,9 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ans_fin" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Ans_init (wrong approach)" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="pdf_opt" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Ans_fin_2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Ans_fin" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Ans_init (wrong approach)" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="pdf_opt" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="127">
   <si>
     <t xml:space="preserve">Requirement 1</t>
   </si>
@@ -1109,10 +1110,5883 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T436"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F306" activeCellId="0" sqref="F306"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="1" style="1" width="11.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>-18000</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>48000</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>-2400</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14" t="n">
+        <v>5300</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="n">
+        <v>750</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="n">
+        <v>3250</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>-400</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14" t="n">
+        <v>-400</v>
+      </c>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14" t="n">
+        <v>600</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="n">
+        <v>-3250</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="n">
+        <v>650</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12" t="n">
+        <v>650</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>-400</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14" t="n">
+        <v>-400</v>
+      </c>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>-185</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14" t="n">
+        <v>-185</v>
+      </c>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>-250</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14" t="n">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>-250</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="n">
+        <v>-250</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <f aca="false">SUM(B4:B20)</f>
+        <v>24525</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">SUM(C4:C20)</f>
+        <v>540</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">SUM(D4:D20)</f>
+        <v>1400</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">SUM(E4:E20)</f>
+        <v>6500</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">SUM(F4:F20)</f>
+        <v>2400</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">SUM(G4:G20)</f>
+        <v>5500</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">SUM(H4:H20)</f>
+        <v>14000</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">SUM(I4:I20)</f>
+        <v>48000</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">SUM(K4:K20)</f>
+        <v>650</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">SUM(L4:L20)</f>
+        <v>48000</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">SUM(M4:M20)</f>
+        <v>1600</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">SUM(N4:N20)</f>
+        <v>45500</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <f aca="false">SUM(O4:O20)</f>
+        <v>-250</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <f aca="false">SUM(P4:P20)</f>
+        <v>8000</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <f aca="false">SUM(Q4:Q20)</f>
+        <v>600</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <f aca="false">SUM(R4:R20)</f>
+        <v>-185</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <f aca="false">SUM(S4:S20)</f>
+        <v>-800</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <f aca="false">SUM(T4:T20)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0" t="n">
+        <f aca="false">B21</f>
+        <v>24525</v>
+      </c>
+      <c r="E25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0" t="n">
+        <f aca="false">C21</f>
+        <v>540</v>
+      </c>
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0" t="n">
+        <f aca="false">D21</f>
+        <v>1400</v>
+      </c>
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0" t="n">
+        <f aca="false">E21</f>
+        <v>6500</v>
+      </c>
+      <c r="E28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0" t="n">
+        <f aca="false">F21</f>
+        <v>2400</v>
+      </c>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0" t="n">
+        <f aca="false">G21</f>
+        <v>5500</v>
+      </c>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0" t="n">
+        <f aca="false">H21</f>
+        <v>14000</v>
+      </c>
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0" t="n">
+        <f aca="false">I21</f>
+        <v>48000</v>
+      </c>
+      <c r="E32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="n">
+        <f aca="false">SUM(D25:D32)</f>
+        <v>102865</v>
+      </c>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0" t="str">
+        <f aca="false">K3</f>
+        <v>Account Payable</v>
+      </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0" t="n">
+        <f aca="false">K21</f>
+        <v>650</v>
+      </c>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="str">
+        <f aca="false">L3</f>
+        <v>Mortgage Payable</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0" t="n">
+        <f aca="false">L21</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="str">
+        <f aca="false">M3</f>
+        <v>Unearned Commission</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0" t="n">
+        <f aca="false">M21</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="1" t="n">
+        <v>45500</v>
+      </c>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="1" t="n">
+        <v>-250</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="1" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="1" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="1" t="n">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="1" t="n">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="1" t="n">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="15" t="n">
+        <f aca="false">SUM(D37:D47)</f>
+        <v>102865</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C53" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="0"/>
+      <c r="G67" s="1" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B68" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="G74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B75" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B81" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B83" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="B85" s="24" t="n">
+        <v>27</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B87" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B91" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="0"/>
+      <c r="G92" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="23"/>
+    </row>
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <f aca="false">F99-G99</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>18000</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <f aca="false">H99+F100-G100</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <f aca="false">H100+F101-G101</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G102" s="0"/>
+      <c r="H102" s="1" t="n">
+        <f aca="false">H101+F102-G102</f>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <f aca="false">H102+F103-G103</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <f aca="false">H103+F104-G104</f>
+        <v>21250</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <f aca="false">H104+F105-G105</f>
+        <v>22850</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <f aca="false">H105+F106-G106</f>
+        <v>22910</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <f aca="false">H106+F107-G107</f>
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <f aca="false">H107+F108-G108</f>
+        <v>25210</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <f aca="false">H108+F109-G109</f>
+        <v>25025</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <f aca="false">H109+F110-G110</f>
+        <v>24775</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <f aca="false">H110+F111-G111</f>
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" s="23"/>
+    </row>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <f aca="false">F115-G115</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <f aca="false">H115+F116-G116</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" s="23"/>
+    </row>
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <f aca="false">F120-G120</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <f aca="false">H120+F121-G121</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I124" s="23"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <f aca="false">F125-G125</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <f aca="false">H125+F126-G126</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="23"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <f aca="false">F130-G130</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="23"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <f aca="false">F134-G134</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="23"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <f aca="false">F138-G138</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I141" s="23"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H142" s="1" t="n">
+        <f aca="false">F142-G142</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I145" s="23"/>
+      <c r="L145" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <f aca="false">ABS(L146)</f>
+        <v>3250</v>
+      </c>
+      <c r="L146" s="27" t="n">
+        <f aca="false">F146-G146</f>
+        <v>-3250</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <f aca="false">ABS(L147)</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="27" t="n">
+        <f aca="false">L146+F147-G147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <f aca="false">ABS(L148)</f>
+        <v>650</v>
+      </c>
+      <c r="L148" s="27" t="n">
+        <f aca="false">L147+F148-G148</f>
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="23"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F152" s="0"/>
+      <c r="G152" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <f aca="false">ABS(L152)</f>
+        <v>48000</v>
+      </c>
+      <c r="L152" s="27" t="n">
+        <f aca="false">F152-G152</f>
+        <v>-48000</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="23"/>
+    </row>
+    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="0"/>
+      <c r="G157" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <f aca="false">ABS(L157)</f>
+        <v>40000</v>
+      </c>
+      <c r="L157" s="27" t="n">
+        <f aca="false">F157-G157</f>
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <f aca="false">ABS(L158)</f>
+        <v>45500</v>
+      </c>
+      <c r="L158" s="27" t="n">
+        <f aca="false">L157+F158-G158</f>
+        <v>-45500</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="23"/>
+    </row>
+    <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <f aca="false">ABS(L162)</f>
+        <v>250</v>
+      </c>
+      <c r="L162" s="27" t="n">
+        <f aca="false">F162-G162</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="23"/>
+      <c r="L165" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G166" s="1" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <f aca="false">ABS(L166)</f>
+        <v>5300</v>
+      </c>
+      <c r="L166" s="27" t="n">
+        <f aca="false">F166-G166</f>
+        <v>-5300</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <f aca="false">ABS(L167)</f>
+        <v>8000</v>
+      </c>
+      <c r="L167" s="27" t="n">
+        <f aca="false">L166+F167-G167</f>
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H168" s="0"/>
+      <c r="L168" s="27"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I172" s="23"/>
+      <c r="L172" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <f aca="false">ABS(L173)</f>
+        <v>1600</v>
+      </c>
+      <c r="L173" s="27" t="n">
+        <f aca="false">F173-G173</f>
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H174" s="0"/>
+      <c r="L174" s="27"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I176" s="23"/>
+      <c r="L176" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <f aca="false">ABS(L177)</f>
+        <v>600</v>
+      </c>
+      <c r="L177" s="27" t="n">
+        <f aca="false">F177-G177</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H178" s="0"/>
+      <c r="L178" s="27"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I181" s="23"/>
+      <c r="L181" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <f aca="false">ABS(L182)</f>
+        <v>185</v>
+      </c>
+      <c r="L182" s="27" t="n">
+        <f aca="false">F182-G182</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H183" s="0"/>
+      <c r="L183" s="27"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I185" s="23"/>
+      <c r="L185" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F186" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <f aca="false">ABS(L186)</f>
+        <v>400</v>
+      </c>
+      <c r="L186" s="27" t="n">
+        <f aca="false">F186-G186</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <f aca="false">ABS(L187)</f>
+        <v>800</v>
+      </c>
+      <c r="L187" s="27" t="n">
+        <f aca="false">L186+F187-G187</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H188" s="0"/>
+      <c r="L188" s="27"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H190" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I190" s="23"/>
+      <c r="L190" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <f aca="false">ABS(L191)</f>
+        <v>250</v>
+      </c>
+      <c r="L191" s="27" t="n">
+        <f aca="false">F191-G191</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H192" s="0"/>
+      <c r="L192" s="27"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H193" s="0"/>
+      <c r="L193" s="27"/>
+    </row>
+    <row r="194" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D196" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <f aca="false">H111</f>
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <f aca="false">H116</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="22" t="str">
+        <f aca="false">A118</f>
+        <v>Office Supply</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <f aca="false">H121</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" s="22" t="str">
+        <f aca="false">A123</f>
+        <v>Office Equipments</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <f aca="false">H126</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" s="22" t="str">
+        <f aca="false">A128</f>
+        <v>Prepaid Insurance</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <f aca="false">H130</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" s="22" t="str">
+        <f aca="false">A132</f>
+        <v>Automobile</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <f aca="false">H134</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" s="22" t="str">
+        <f aca="false">A136</f>
+        <v>Land</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <f aca="false">H138</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B204" s="22" t="str">
+        <f aca="false">A140</f>
+        <v>Building</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <f aca="false">H142</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" s="22" t="str">
+        <f aca="false">A144</f>
+        <v>Account Payable</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <f aca="false">H148</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B206" s="22" t="str">
+        <f aca="false">A150</f>
+        <v>Mortgage Payable</v>
+      </c>
+      <c r="E206" s="1" t="n">
+        <f aca="false">H152</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B207" s="22" t="str">
+        <f aca="false">A155</f>
+        <v>Larry Hill capital</v>
+      </c>
+      <c r="E207" s="1" t="n">
+        <f aca="false">H158</f>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B208" s="22" t="str">
+        <f aca="false">A160</f>
+        <v>Larry Hill Withdrawal</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <f aca="false">H162</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B209" s="22" t="str">
+        <f aca="false">A164</f>
+        <v>Commission Earned</v>
+      </c>
+      <c r="E209" s="1" t="n">
+        <f aca="false">H167</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B210" s="22" t="str">
+        <f aca="false">A171</f>
+        <v>Unearned Commission </v>
+      </c>
+      <c r="E210" s="1" t="n">
+        <f aca="false">H173</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B211" s="22" t="str">
+        <f aca="false">A175</f>
+        <v>Management Fees Earned</v>
+      </c>
+      <c r="E211" s="1" t="n">
+        <f aca="false">H177</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B212" s="22" t="str">
+        <f aca="false">A180</f>
+        <v>Advertising Expense</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <f aca="false">H182</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B213" s="22" t="str">
+        <f aca="false">A184</f>
+        <v>Salaries Expense</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <f aca="false">H187</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B214" s="22" t="str">
+        <f aca="false">A189</f>
+        <v>Telephone Expense</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <f aca="false">H191</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" s="28"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="15" t="n">
+        <f aca="false">SUM(D197:D214)</f>
+        <v>104350</v>
+      </c>
+      <c r="E215" s="15" t="n">
+        <f aca="false">SUM(E197:E214)</f>
+        <v>104350</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B219" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="29"/>
+      <c r="B220" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" s="30"/>
+      <c r="D220" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="30"/>
+      <c r="M220" s="30"/>
+      <c r="N220" s="30"/>
+      <c r="O220" s="30"/>
+      <c r="P220" s="30"/>
+      <c r="Q220" s="30"/>
+      <c r="R220" s="30"/>
+      <c r="S220" s="30"/>
+      <c r="T220" s="30"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B221" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C221" s="22"/>
+      <c r="E221" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="24"/>
+      <c r="B222" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="22"/>
+      <c r="D222" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B223" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="22"/>
+      <c r="E223" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="24"/>
+      <c r="B224" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C224" s="22"/>
+      <c r="D224" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="24"/>
+      <c r="B225" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="22"/>
+      <c r="E225" s="1" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="24"/>
+      <c r="B226" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C226" s="22"/>
+      <c r="D226" s="1" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B227" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C227" s="22"/>
+      <c r="E227" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="24"/>
+      <c r="B228" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" s="22"/>
+      <c r="D228" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B229" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C229" s="22"/>
+      <c r="D229" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="24"/>
+      <c r="B230" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C230" s="22"/>
+      <c r="E230" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B231" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" s="22"/>
+      <c r="E231" s="1" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="24"/>
+      <c r="B232" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="22"/>
+      <c r="D232" s="1" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B233" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C233" s="22"/>
+      <c r="D233" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="24"/>
+      <c r="B234" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="22"/>
+      <c r="E234" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B235" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" s="22"/>
+      <c r="D235" s="1" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="24"/>
+      <c r="B236" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C236" s="22"/>
+      <c r="E236" s="1" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B237" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="22"/>
+      <c r="D237" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="24"/>
+      <c r="B238" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C238" s="22"/>
+      <c r="E238" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="22"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="15"/>
+      <c r="D240" s="15" t="n">
+        <f aca="false">SUM(D221:D239)</f>
+        <v>5295</v>
+      </c>
+      <c r="E240" s="15" t="n">
+        <f aca="false">SUM(E221:E239)</f>
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B242" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E243" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0"/>
+      <c r="B244" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C244" s="0"/>
+      <c r="D244" s="31" t="n">
+        <f aca="false">D197</f>
+        <v>24525</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0"/>
+      <c r="B245" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C245" s="0"/>
+      <c r="D245" s="15" t="n">
+        <f aca="false">D198+D232+D229</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0"/>
+      <c r="B246" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C246" s="0"/>
+      <c r="D246" s="15" t="n">
+        <f aca="false">D199-E227</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0"/>
+      <c r="B247" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="0"/>
+      <c r="D247" s="15" t="n">
+        <f aca="false">D200-E223</f>
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0"/>
+      <c r="B248" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="0"/>
+      <c r="D248" s="15" t="n">
+        <f aca="false">D201-E234</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0"/>
+      <c r="B249" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" s="0"/>
+      <c r="D249" s="1" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0"/>
+      <c r="B250" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="0"/>
+      <c r="D250" s="1" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0"/>
+      <c r="B251" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="0"/>
+      <c r="D251" s="15" t="n">
+        <f aca="false">D204-E225</f>
+        <v>47666</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0"/>
+      <c r="B252" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C252" s="0"/>
+      <c r="E252" s="15" t="n">
+        <f aca="false">E221</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0"/>
+      <c r="B253" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C253" s="0"/>
+      <c r="E253" s="15" t="n">
+        <f aca="false">E236</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0"/>
+      <c r="B254" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" s="0"/>
+      <c r="E254" s="15" t="n">
+        <f aca="false">E238</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0"/>
+      <c r="B255" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="0"/>
+      <c r="E255" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0"/>
+      <c r="B256" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="0"/>
+      <c r="E256" s="1" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0"/>
+      <c r="B257" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C257" s="0"/>
+      <c r="E257" s="1" t="n">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0"/>
+      <c r="B258" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C258" s="0"/>
+      <c r="D258" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0"/>
+      <c r="B259" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" s="0"/>
+      <c r="E259" s="15" t="n">
+        <f aca="false">E209+E231</f>
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0"/>
+      <c r="B260" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C260" s="0"/>
+      <c r="E260" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0"/>
+      <c r="B261" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" s="0"/>
+      <c r="E261" s="1" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0"/>
+      <c r="B262" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C262" s="0"/>
+      <c r="E262" s="15" t="n">
+        <f aca="false">E230</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0"/>
+      <c r="B263" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="0"/>
+      <c r="D263" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0"/>
+      <c r="B264" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264" s="0"/>
+      <c r="D264" s="15" t="n">
+        <f aca="false">D213+D235</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0"/>
+      <c r="B265" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="0"/>
+      <c r="D265" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" s="15" t="n">
+        <f aca="false">D222</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D267" s="15" t="n">
+        <f aca="false">D224+D226</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D268" s="15" t="n">
+        <f aca="false">D228</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D269" s="15" t="n">
+        <f aca="false">D233</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D270" s="15" t="n">
+        <f aca="false">D237</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="15"/>
+      <c r="D272" s="15" t="n">
+        <f aca="false">SUM(D244:D270)</f>
+        <v>107700</v>
+      </c>
+      <c r="E272" s="15" t="n">
+        <f aca="false">SUM(E244:E270)</f>
+        <v>107700</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
+      <c r="D277" s="0"/>
+      <c r="E277" s="0"/>
+      <c r="F277" s="0"/>
+      <c r="G277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0"/>
+      <c r="D278" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G278" s="22"/>
+      <c r="H278" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I278" s="22"/>
+      <c r="J278" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K278" s="22"/>
+      <c r="L278" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M278" s="22"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B279" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C279" s="34"/>
+      <c r="D279" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E279" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F279" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G279" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H279" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I279" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J279" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K279" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L279" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M279" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N279" s="33"/>
+      <c r="O279" s="33"/>
+      <c r="P279" s="33"/>
+      <c r="Q279" s="33"/>
+      <c r="R279" s="33"/>
+      <c r="S279" s="33"/>
+      <c r="T279" s="33"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B280" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" s="20"/>
+      <c r="D280" s="1" t="n">
+        <v>24525</v>
+      </c>
+      <c r="H280" s="1" t="n">
+        <f aca="false">D280-E280+F280-G280</f>
+        <v>24525</v>
+      </c>
+      <c r="L280" s="1" t="n">
+        <f aca="false">H280</f>
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281" s="20"/>
+      <c r="D281" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="F281" s="1" t="n">
+        <f aca="false">D229+D232</f>
+        <v>595</v>
+      </c>
+      <c r="H281" s="1" t="n">
+        <f aca="false">D281-E281+F281-G281</f>
+        <v>1135</v>
+      </c>
+      <c r="L281" s="1" t="n">
+        <f aca="false">H281</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C282" s="20"/>
+      <c r="D282" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G282" s="1" t="n">
+        <f aca="false">E227</f>
+        <v>1375</v>
+      </c>
+      <c r="H282" s="1" t="n">
+        <f aca="false">D282-E282+F282-G282</f>
+        <v>25</v>
+      </c>
+      <c r="L282" s="1" t="n">
+        <f aca="false">H282</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="20"/>
+      <c r="D283" s="1" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G283" s="1" t="n">
+        <f aca="false">E223</f>
+        <v>136</v>
+      </c>
+      <c r="H283" s="1" t="n">
+        <f aca="false">D283-E283+F283-G283</f>
+        <v>6364</v>
+      </c>
+      <c r="L283" s="1" t="n">
+        <f aca="false">H283</f>
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="20"/>
+      <c r="D284" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G284" s="1" t="n">
+        <f aca="false">E234</f>
+        <v>100</v>
+      </c>
+      <c r="H284" s="1" t="n">
+        <f aca="false">D284-E284+F284-G284</f>
+        <v>2300</v>
+      </c>
+      <c r="L284" s="1" t="n">
+        <f aca="false">H284</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" s="20"/>
+      <c r="D285" s="1" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H285" s="1" t="n">
+        <f aca="false">D285-E285+F285-G285</f>
+        <v>5500</v>
+      </c>
+      <c r="L285" s="1" t="n">
+        <f aca="false">H285</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="20"/>
+      <c r="D286" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="H286" s="1" t="n">
+        <f aca="false">D286-E286+F286-G286</f>
+        <v>14000</v>
+      </c>
+      <c r="L286" s="1" t="n">
+        <f aca="false">H286</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B287" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="20"/>
+      <c r="D287" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="G287" s="1" t="n">
+        <f aca="false">E225</f>
+        <v>334</v>
+      </c>
+      <c r="H287" s="1" t="n">
+        <f aca="false">D287-E287+F287-G287</f>
+        <v>47666</v>
+      </c>
+      <c r="L287" s="1" t="n">
+        <f aca="false">H287</f>
+        <v>47666</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="20"/>
+      <c r="E288" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="I288" s="1" t="n">
+        <f aca="false">E288-D288+G288-F288</f>
+        <v>650</v>
+      </c>
+      <c r="M288" s="1" t="n">
+        <f aca="false">I288</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="20"/>
+      <c r="E289" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="I289" s="1" t="n">
+        <f aca="false">E289-D289+G289-F289</f>
+        <v>48000</v>
+      </c>
+      <c r="M289" s="1" t="n">
+        <f aca="false">I289</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C290" s="20"/>
+      <c r="E290" s="1" t="n">
+        <v>45500</v>
+      </c>
+      <c r="I290" s="1" t="n">
+        <f aca="false">E290-D290+G290-F290</f>
+        <v>45500</v>
+      </c>
+      <c r="M290" s="1" t="n">
+        <f aca="false">I290</f>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C291" s="20"/>
+      <c r="D291" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H291" s="1" t="n">
+        <f aca="false">D291-E291+F291-G291</f>
+        <v>250</v>
+      </c>
+      <c r="L291" s="1" t="n">
+        <f aca="false">H291</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C292" s="20"/>
+      <c r="E292" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G292" s="1" t="n">
+        <f aca="false">E231</f>
+        <v>295</v>
+      </c>
+      <c r="I292" s="1" t="n">
+        <f aca="false">E292-D292+G292-F292</f>
+        <v>8295</v>
+      </c>
+      <c r="K292" s="1" t="n">
+        <f aca="false">I292</f>
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C293" s="20"/>
+      <c r="E293" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I293" s="1" t="n">
+        <f aca="false">E293-D293+G293-F293</f>
+        <v>1600</v>
+      </c>
+      <c r="K293" s="0"/>
+      <c r="M293" s="1" t="n">
+        <f aca="false">I293</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="20"/>
+      <c r="E294" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="I294" s="1" t="n">
+        <f aca="false">E294-D294+G294-F294</f>
+        <v>600</v>
+      </c>
+      <c r="K294" s="1" t="n">
+        <f aca="false">I294</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C295" s="20"/>
+      <c r="D295" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="H295" s="1" t="n">
+        <f aca="false">D295-E295+F295-G295</f>
+        <v>185</v>
+      </c>
+      <c r="J295" s="1" t="n">
+        <f aca="false">H295</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C296" s="20"/>
+      <c r="D296" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="H296" s="1" t="n">
+        <f aca="false">D296-E296+F296-G296</f>
+        <v>800</v>
+      </c>
+      <c r="J296" s="1" t="n">
+        <f aca="false">H296</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="20"/>
+      <c r="D297" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H297" s="1" t="n">
+        <f aca="false">D297-E297+F297-G297</f>
+        <v>250</v>
+      </c>
+      <c r="J297" s="1" t="n">
+        <f aca="false">H297</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0"/>
+      <c r="B298" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298" s="28"/>
+      <c r="D298" s="15" t="n">
+        <v>104350</v>
+      </c>
+      <c r="E298" s="15" t="n">
+        <v>104350</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B300" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G300" s="1" t="n">
+        <f aca="false">E252</f>
+        <v>480</v>
+      </c>
+      <c r="I300" s="1" t="n">
+        <f aca="false">E300-D300+G300-F300</f>
+        <v>480</v>
+      </c>
+      <c r="M300" s="1" t="n">
+        <f aca="false">I300</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G301" s="1" t="n">
+        <f aca="false">E253</f>
+        <v>2100</v>
+      </c>
+      <c r="I301" s="1" t="n">
+        <f aca="false">E301-D301+G301-F301</f>
+        <v>2100</v>
+      </c>
+      <c r="M301" s="1" t="n">
+        <f aca="false">I301</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G302" s="1" t="n">
+        <f aca="false">E254</f>
+        <v>175</v>
+      </c>
+      <c r="I302" s="1" t="n">
+        <f aca="false">E302-D302+G302-F302</f>
+        <v>175</v>
+      </c>
+      <c r="M302" s="1" t="n">
+        <f aca="false">I302</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B303" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C303" s="22"/>
+      <c r="G303" s="1" t="n">
+        <f aca="false">E262</f>
+        <v>300</v>
+      </c>
+      <c r="I303" s="1" t="n">
+        <f aca="false">E303-D303+G303-F303</f>
+        <v>300</v>
+      </c>
+      <c r="K303" s="1" t="n">
+        <f aca="false">I303</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="22"/>
+      <c r="F304" s="1" t="n">
+        <f aca="false">D235</f>
+        <v>2100</v>
+      </c>
+      <c r="H304" s="1" t="n">
+        <f aca="false">D304-E304+F304-G304</f>
+        <v>2100</v>
+      </c>
+      <c r="J304" s="1" t="n">
+        <f aca="false">H304</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B305" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C305" s="22"/>
+      <c r="F305" s="1" t="n">
+        <f aca="false">D222</f>
+        <v>480</v>
+      </c>
+      <c r="H305" s="1" t="n">
+        <f aca="false">D305-E305+F305-G305</f>
+        <v>480</v>
+      </c>
+      <c r="J305" s="1" t="n">
+        <f aca="false">H305</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C306" s="22"/>
+      <c r="F306" s="1" t="n">
+        <f aca="false">D224+D226</f>
+        <v>470</v>
+      </c>
+      <c r="H306" s="1" t="n">
+        <f aca="false">D306-E306+F306-G306</f>
+        <v>470</v>
+      </c>
+      <c r="J306" s="1" t="n">
+        <f aca="false">H306</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C307" s="22"/>
+      <c r="F307" s="1" t="n">
+        <f aca="false">D268</f>
+        <v>1375</v>
+      </c>
+      <c r="H307" s="1" t="n">
+        <f aca="false">D307-E307+F307-G307</f>
+        <v>1375</v>
+      </c>
+      <c r="J307" s="1" t="n">
+        <f aca="false">H307</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C308" s="22"/>
+      <c r="F308" s="1" t="n">
+        <f aca="false">D269</f>
+        <v>100</v>
+      </c>
+      <c r="H308" s="1" t="n">
+        <f aca="false">D308-E308+F308-G308</f>
+        <v>100</v>
+      </c>
+      <c r="J308" s="1" t="n">
+        <f aca="false">H308</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C309" s="22"/>
+      <c r="F309" s="1" t="n">
+        <f aca="false">D270</f>
+        <v>175</v>
+      </c>
+      <c r="H309" s="1" t="n">
+        <f aca="false">D309-E309+F309-G309</f>
+        <v>175</v>
+      </c>
+      <c r="J309" s="1" t="n">
+        <f aca="false">H309</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B311" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311" s="28"/>
+      <c r="F311" s="15" t="n">
+        <f aca="false">SUM(F280:F310)</f>
+        <v>5295</v>
+      </c>
+      <c r="G311" s="15" t="n">
+        <f aca="false">SUM(G280:G310)</f>
+        <v>5295</v>
+      </c>
+      <c r="H311" s="15" t="n">
+        <f aca="false">SUM(H280:H310)</f>
+        <v>107700</v>
+      </c>
+      <c r="I311" s="15" t="n">
+        <f aca="false">SUM(I280:I310)</f>
+        <v>107700</v>
+      </c>
+      <c r="J311" s="15" t="n">
+        <f aca="false">SUM(J280:J310)</f>
+        <v>5935</v>
+      </c>
+      <c r="K311" s="15" t="n">
+        <f aca="false">SUM(K280:K310)</f>
+        <v>9195</v>
+      </c>
+      <c r="L311" s="15" t="n">
+        <f aca="false">SUM(L280:L310)</f>
+        <v>101765</v>
+      </c>
+      <c r="M311" s="15" t="n">
+        <f aca="false">SUM(M280:M310)</f>
+        <v>98505</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="22"/>
+      <c r="C312" s="22"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="22"/>
+      <c r="C313" s="22"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B314" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" s="35"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="22"/>
+      <c r="C315" s="22"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B316" s="22"/>
+      <c r="C316" s="22"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="22" t="str">
+        <f aca="false">B292</f>
+        <v>Commission Earned</v>
+      </c>
+      <c r="C317" s="22"/>
+      <c r="D317" s="1" t="n">
+        <f aca="false">K292</f>
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="22" t="str">
+        <f aca="false">B294</f>
+        <v>Management Fees Earned</v>
+      </c>
+      <c r="C318" s="22"/>
+      <c r="D318" s="1" t="n">
+        <f aca="false">K294</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="22" t="str">
+        <f aca="false">B303</f>
+        <v>Rent Revenue</v>
+      </c>
+      <c r="C319" s="22"/>
+      <c r="D319" s="1" t="n">
+        <f aca="false">K303</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B320" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C320" s="28"/>
+      <c r="D320" s="15" t="n">
+        <f aca="false">SUM(D317:D319)</f>
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B321" s="22"/>
+      <c r="C321" s="22"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="22" t="str">
+        <f aca="false">B295</f>
+        <v>Advertising Expense</v>
+      </c>
+      <c r="C322" s="22"/>
+      <c r="D322" s="1" t="n">
+        <f aca="false">J295</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="22" t="str">
+        <f aca="false">B296</f>
+        <v>Salaries Expense</v>
+      </c>
+      <c r="C323" s="22"/>
+      <c r="D323" s="1" t="n">
+        <f aca="false">J296</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="22" t="str">
+        <f aca="false">B297</f>
+        <v>Telephone Expense</v>
+      </c>
+      <c r="C324" s="22"/>
+      <c r="D324" s="1" t="n">
+        <f aca="false">J297</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="22" t="str">
+        <f aca="false">B304</f>
+        <v>Salaries Expense</v>
+      </c>
+      <c r="C325" s="22"/>
+      <c r="D325" s="1" t="n">
+        <f aca="false">J304</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="22" t="str">
+        <f aca="false">B305</f>
+        <v>Interest Expense</v>
+      </c>
+      <c r="C326" s="22"/>
+      <c r="D326" s="1" t="n">
+        <f aca="false">J305</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="22" t="str">
+        <f aca="false">B306</f>
+        <v>Depreciation Expense</v>
+      </c>
+      <c r="C327" s="22"/>
+      <c r="D327" s="1" t="n">
+        <f aca="false">J306</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="22" t="str">
+        <f aca="false">B307</f>
+        <v>Supply Expense</v>
+      </c>
+      <c r="C328" s="22"/>
+      <c r="D328" s="1" t="n">
+        <f aca="false">J307</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="22" t="str">
+        <f aca="false">B308</f>
+        <v>Insurance Expense</v>
+      </c>
+      <c r="C329" s="22"/>
+      <c r="D329" s="1" t="n">
+        <f aca="false">J308</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="22" t="str">
+        <f aca="false">B309</f>
+        <v>Utility Expense</v>
+      </c>
+      <c r="C330" s="22"/>
+      <c r="D330" s="1" t="n">
+        <f aca="false">J309</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B331" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C331" s="28"/>
+      <c r="D331" s="15" t="n">
+        <f aca="false">SUM(D322:D330)</f>
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B333" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C333" s="36"/>
+      <c r="D333" s="15" t="n">
+        <f aca="false">D320-D331</f>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B336" s="37"/>
+      <c r="C336" s="37"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A338" s="22"/>
+      <c r="B338" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C338" s="22"/>
+      <c r="D338" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B339" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C339" s="22"/>
+      <c r="D339" s="1" t="n">
+        <f aca="false">D333</f>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D340" s="1" t="n">
+        <f aca="false">D338+D339</f>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B341" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C341" s="22"/>
+      <c r="D341" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B342" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C342" s="22"/>
+      <c r="D342" s="15" t="n">
+        <f aca="false">D340-D341</f>
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="37"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0"/>
+      <c r="B347" s="20" t="str">
+        <f aca="false">B280</f>
+        <v>Cash Account</v>
+      </c>
+      <c r="C347" s="20"/>
+      <c r="D347" s="0" t="n">
+        <f aca="false">H280</f>
+        <v>24525</v>
+      </c>
+      <c r="E347" s="0"/>
+      <c r="F347" s="0"/>
+      <c r="G347" s="0"/>
+      <c r="H347" s="0"/>
+      <c r="I347" s="0"/>
+      <c r="J347" s="0"/>
+      <c r="K347" s="0"/>
+      <c r="L347" s="0"/>
+      <c r="M347" s="0"/>
+      <c r="N347" s="0"/>
+      <c r="O347" s="0"/>
+      <c r="P347" s="0"/>
+      <c r="Q347" s="0"/>
+      <c r="R347" s="0"/>
+      <c r="S347" s="0"/>
+      <c r="T347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="20" t="str">
+        <f aca="false">B281</f>
+        <v>Account Receivable </v>
+      </c>
+      <c r="C348" s="20"/>
+      <c r="D348" s="0" t="n">
+        <f aca="false">H281</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="20" t="str">
+        <f aca="false">B282</f>
+        <v>Office Supply</v>
+      </c>
+      <c r="C349" s="20"/>
+      <c r="D349" s="0" t="n">
+        <f aca="false">H282</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="20" t="str">
+        <f aca="false">B283</f>
+        <v>Office Equipments</v>
+      </c>
+      <c r="C350" s="20"/>
+      <c r="D350" s="0" t="n">
+        <f aca="false">H283</f>
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="20" t="str">
+        <f aca="false">B284</f>
+        <v>Prepaid Insurance</v>
+      </c>
+      <c r="C351" s="20"/>
+      <c r="D351" s="0" t="n">
+        <f aca="false">H284</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="20" t="str">
+        <f aca="false">B285</f>
+        <v>Automobile</v>
+      </c>
+      <c r="C352" s="20"/>
+      <c r="D352" s="0" t="n">
+        <f aca="false">H285</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="20" t="str">
+        <f aca="false">B286</f>
+        <v>Land</v>
+      </c>
+      <c r="C353" s="20"/>
+      <c r="D353" s="0" t="n">
+        <f aca="false">H286</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="20" t="str">
+        <f aca="false">B287</f>
+        <v>Building</v>
+      </c>
+      <c r="C354" s="20"/>
+      <c r="D354" s="0" t="n">
+        <f aca="false">H287</f>
+        <v>47666</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C355" s="16"/>
+      <c r="D355" s="15" t="n">
+        <f aca="false">SUM(D347:D354)</f>
+        <v>101515</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="20" t="str">
+        <f aca="false">B288</f>
+        <v>Account Payable</v>
+      </c>
+      <c r="C357" s="20"/>
+      <c r="D357" s="1" t="n">
+        <f aca="false">I288</f>
+        <v>650</v>
+      </c>
+      <c r="E357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="20" t="str">
+        <f aca="false">B289</f>
+        <v>Mortgage Payable</v>
+      </c>
+      <c r="C358" s="20"/>
+      <c r="D358" s="1" t="n">
+        <f aca="false">I289</f>
+        <v>48000</v>
+      </c>
+      <c r="E358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="20" t="str">
+        <f aca="false">B300</f>
+        <v>Building Interest Payable</v>
+      </c>
+      <c r="C359" s="20"/>
+      <c r="D359" s="1" t="n">
+        <f aca="false">I300</f>
+        <v>480</v>
+      </c>
+      <c r="E359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="20" t="str">
+        <f aca="false">B301</f>
+        <v>Salaries Payable</v>
+      </c>
+      <c r="C360" s="20"/>
+      <c r="D360" s="1" t="n">
+        <f aca="false">I301</f>
+        <v>2100</v>
+      </c>
+      <c r="E360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="20" t="str">
+        <f aca="false">B302</f>
+        <v>Utility Payable</v>
+      </c>
+      <c r="C361" s="20"/>
+      <c r="D361" s="1" t="n">
+        <f aca="false">I302</f>
+        <v>175</v>
+      </c>
+      <c r="E361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="20" t="str">
+        <f aca="false">B293</f>
+        <v>Unearned Commission </v>
+      </c>
+      <c r="C362" s="20"/>
+      <c r="D362" s="1" t="n">
+        <f aca="false">M293</f>
+        <v>1600</v>
+      </c>
+      <c r="E362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C363" s="16"/>
+      <c r="D363" s="15" t="n">
+        <f aca="false">SUM(D357:D362)</f>
+        <v>53005</v>
+      </c>
+      <c r="E363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364" s="22"/>
+      <c r="C364" s="0"/>
+      <c r="E364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="20" t="str">
+        <f aca="false">B290</f>
+        <v>Larry Hill capital</v>
+      </c>
+      <c r="C365" s="20"/>
+      <c r="D365" s="1" t="n">
+        <f aca="false">I290</f>
+        <v>45500</v>
+      </c>
+      <c r="E365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C366" s="20"/>
+      <c r="D366" s="1" t="n">
+        <f aca="false">D342</f>
+        <v>3010</v>
+      </c>
+      <c r="E366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B367" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C367" s="28"/>
+      <c r="D367" s="15" t="n">
+        <f aca="false">SUM(D365:D366)</f>
+        <v>48510</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="20"/>
+      <c r="C368" s="20"/>
+    </row>
+    <row r="369" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="15" t="n">
+        <f aca="false">D363+D367</f>
+        <v>101515</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="24"/>
+      <c r="C370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
+    </row>
+    <row r="372" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B372" s="2"/>
+      <c r="C372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="20"/>
+      <c r="C373" s="20"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C374" s="20"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="20"/>
+      <c r="C375" s="20"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B376" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C376" s="39"/>
+      <c r="D376" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E376" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F376" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G376" s="38"/>
+      <c r="H376" s="38"/>
+      <c r="I376" s="38"/>
+      <c r="J376" s="38"/>
+      <c r="K376" s="38"/>
+      <c r="L376" s="38"/>
+      <c r="M376" s="38"/>
+      <c r="N376" s="38"/>
+      <c r="O376" s="38"/>
+      <c r="P376" s="38"/>
+      <c r="Q376" s="38"/>
+      <c r="R376" s="38"/>
+      <c r="S376" s="38"/>
+      <c r="T376" s="38"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0"/>
+      <c r="B377" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C377" s="20"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B378" s="20" t="str">
+        <f aca="false">B317</f>
+        <v>Commission Earned</v>
+      </c>
+      <c r="C378" s="20"/>
+      <c r="D378" s="0"/>
+      <c r="E378" s="24" t="n">
+        <f aca="false">D317</f>
+        <v>8295</v>
+      </c>
+      <c r="F378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="20" t="str">
+        <f aca="false">B318</f>
+        <v>Management Fees Earned</v>
+      </c>
+      <c r="C379" s="20"/>
+      <c r="D379" s="0"/>
+      <c r="E379" s="24" t="n">
+        <f aca="false">D318</f>
+        <v>600</v>
+      </c>
+      <c r="F379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="20" t="str">
+        <f aca="false">B319</f>
+        <v>Rent Revenue</v>
+      </c>
+      <c r="C380" s="20"/>
+      <c r="D380" s="0"/>
+      <c r="E380" s="24" t="n">
+        <f aca="false">D319</f>
+        <v>300</v>
+      </c>
+      <c r="F380" s="0"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C381" s="20"/>
+      <c r="E381" s="0"/>
+      <c r="F381" s="1" t="n">
+        <f aca="false">SUM(E378:E380)</f>
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C384" s="20"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="20" t="str">
+        <f aca="false">B322</f>
+        <v>Advertising Expense</v>
+      </c>
+      <c r="C385" s="20"/>
+      <c r="D385" s="0"/>
+      <c r="E385" s="0"/>
+      <c r="F385" s="24" t="n">
+        <f aca="false">D322</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="20" t="str">
+        <f aca="false">B323</f>
+        <v>Salaries Expense</v>
+      </c>
+      <c r="C386" s="20"/>
+      <c r="D386" s="0"/>
+      <c r="E386" s="0"/>
+      <c r="F386" s="24" t="n">
+        <f aca="false">D323</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="20" t="str">
+        <f aca="false">B324</f>
+        <v>Telephone Expense</v>
+      </c>
+      <c r="C387" s="20"/>
+      <c r="D387" s="0"/>
+      <c r="E387" s="0"/>
+      <c r="F387" s="24" t="n">
+        <f aca="false">D324</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="20" t="str">
+        <f aca="false">B325</f>
+        <v>Salaries Expense</v>
+      </c>
+      <c r="C388" s="20"/>
+      <c r="D388" s="0"/>
+      <c r="E388" s="0"/>
+      <c r="F388" s="24" t="n">
+        <f aca="false">D325</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="20" t="str">
+        <f aca="false">B326</f>
+        <v>Interest Expense</v>
+      </c>
+      <c r="C389" s="20"/>
+      <c r="D389" s="0"/>
+      <c r="E389" s="0"/>
+      <c r="F389" s="24" t="n">
+        <f aca="false">D326</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="20" t="str">
+        <f aca="false">B327</f>
+        <v>Depreciation Expense</v>
+      </c>
+      <c r="C390" s="20"/>
+      <c r="D390" s="0"/>
+      <c r="E390" s="0"/>
+      <c r="F390" s="24" t="n">
+        <f aca="false">D327</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="20" t="str">
+        <f aca="false">B328</f>
+        <v>Supply Expense</v>
+      </c>
+      <c r="C391" s="20"/>
+      <c r="D391" s="0"/>
+      <c r="E391" s="0"/>
+      <c r="F391" s="24" t="n">
+        <f aca="false">D328</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="20" t="str">
+        <f aca="false">B329</f>
+        <v>Insurance Expense</v>
+      </c>
+      <c r="C392" s="20"/>
+      <c r="D392" s="0"/>
+      <c r="E392" s="0"/>
+      <c r="F392" s="24" t="n">
+        <f aca="false">D329</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="20" t="str">
+        <f aca="false">B330</f>
+        <v>Utility Expense</v>
+      </c>
+      <c r="C393" s="20"/>
+      <c r="D393" s="0"/>
+      <c r="E393" s="0"/>
+      <c r="F393" s="24" t="n">
+        <f aca="false">D330</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C394" s="20"/>
+      <c r="E394" s="1" t="n">
+        <f aca="false">SUM(F385:F393)</f>
+        <v>5935</v>
+      </c>
+      <c r="F394" s="0"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C397" s="20"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C398" s="20"/>
+      <c r="E398" s="1" t="n">
+        <f aca="false">F381-E394</f>
+        <v>3260</v>
+      </c>
+      <c r="F398" s="0"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C399" s="20"/>
+      <c r="E399" s="0"/>
+      <c r="F399" s="1" t="n">
+        <f aca="false">E398</f>
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C400" s="0"/>
+      <c r="F400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C402" s="20"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C403" s="20"/>
+      <c r="E403" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C404" s="20"/>
+      <c r="F404" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B409" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B413" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C413" s="42"/>
+      <c r="D413" s="41"/>
+      <c r="E413" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F413" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G413" s="41"/>
+      <c r="H413" s="41"/>
+      <c r="I413" s="41"/>
+      <c r="J413" s="41"/>
+      <c r="K413" s="41"/>
+      <c r="L413" s="41"/>
+      <c r="M413" s="41"/>
+      <c r="N413" s="41"/>
+      <c r="O413" s="41"/>
+      <c r="P413" s="41"/>
+      <c r="Q413" s="41"/>
+      <c r="R413" s="41"/>
+      <c r="S413" s="41"/>
+      <c r="T413" s="41"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="22" t="str">
+        <f aca="false">B280</f>
+        <v>Cash Account</v>
+      </c>
+      <c r="C414" s="22"/>
+      <c r="E414" s="1" t="n">
+        <f aca="false">H280</f>
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="22" t="str">
+        <f aca="false">B281</f>
+        <v>Account Receivable </v>
+      </c>
+      <c r="C415" s="22"/>
+      <c r="E415" s="1" t="n">
+        <f aca="false">H281</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="22" t="str">
+        <f aca="false">B282</f>
+        <v>Office Supply</v>
+      </c>
+      <c r="C416" s="22"/>
+      <c r="E416" s="1" t="n">
+        <f aca="false">H282</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="22" t="str">
+        <f aca="false">B283</f>
+        <v>Office Equipments</v>
+      </c>
+      <c r="C417" s="22"/>
+      <c r="E417" s="1" t="n">
+        <f aca="false">H283</f>
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="22" t="str">
+        <f aca="false">B284</f>
+        <v>Prepaid Insurance</v>
+      </c>
+      <c r="C418" s="22"/>
+      <c r="E418" s="1" t="n">
+        <f aca="false">H284</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="22" t="str">
+        <f aca="false">B285</f>
+        <v>Automobile</v>
+      </c>
+      <c r="C419" s="22"/>
+      <c r="E419" s="1" t="n">
+        <f aca="false">H285</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="22" t="str">
+        <f aca="false">B286</f>
+        <v>Land</v>
+      </c>
+      <c r="C420" s="22"/>
+      <c r="E420" s="1" t="n">
+        <f aca="false">H286</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="22" t="str">
+        <f aca="false">B287</f>
+        <v>Building</v>
+      </c>
+      <c r="C421" s="22"/>
+      <c r="E421" s="1" t="n">
+        <f aca="false">H287</f>
+        <v>47666</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="22" t="str">
+        <f aca="false">B288</f>
+        <v>Account Payable</v>
+      </c>
+      <c r="C422" s="22"/>
+      <c r="F422" s="1" t="n">
+        <f aca="false">I288</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="22" t="str">
+        <f aca="false">B289</f>
+        <v>Mortgage Payable</v>
+      </c>
+      <c r="C423" s="22"/>
+      <c r="F423" s="1" t="n">
+        <f aca="false">I289</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="22" t="str">
+        <f aca="false">B290</f>
+        <v>Larry Hill capital</v>
+      </c>
+      <c r="C424" s="22"/>
+      <c r="F424" s="1" t="n">
+        <f aca="false">I290</f>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="22" t="str">
+        <f aca="false">B293</f>
+        <v>Unearned Commission </v>
+      </c>
+      <c r="C425" s="22"/>
+      <c r="F425" s="1" t="n">
+        <f aca="false">I293</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="22" t="str">
+        <f aca="false">B300</f>
+        <v>Building Interest Payable</v>
+      </c>
+      <c r="C426" s="22"/>
+      <c r="F426" s="1" t="n">
+        <f aca="false">I300</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="22" t="str">
+        <f aca="false">B301</f>
+        <v>Salaries Payable</v>
+      </c>
+      <c r="C427" s="22"/>
+      <c r="F427" s="1" t="n">
+        <f aca="false">I301</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="22" t="str">
+        <f aca="false">B302</f>
+        <v>Utility Payable</v>
+      </c>
+      <c r="C428" s="22"/>
+      <c r="F428" s="1" t="n">
+        <f aca="false">I302</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B429" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C429" s="22"/>
+      <c r="F429" s="1" t="n">
+        <f aca="false">F399-E403</f>
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="22"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="15"/>
+      <c r="B431" s="28" t="str">
+        <f aca="false">B311</f>
+        <v>Total</v>
+      </c>
+      <c r="C431" s="28"/>
+      <c r="D431" s="15"/>
+      <c r="E431" s="15" t="n">
+        <f aca="false">SUM(E414:E429)</f>
+        <v>101515</v>
+      </c>
+      <c r="F431" s="15" t="n">
+        <f aca="false">SUM(F414:F429)</f>
+        <v>101515</v>
+      </c>
+      <c r="G431" s="15"/>
+      <c r="H431" s="15"/>
+      <c r="I431" s="15"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="15"/>
+      <c r="L431" s="15"/>
+      <c r="M431" s="15"/>
+      <c r="N431" s="15"/>
+      <c r="O431" s="15"/>
+      <c r="P431" s="15"/>
+      <c r="Q431" s="15"/>
+      <c r="R431" s="15"/>
+      <c r="S431" s="15"/>
+      <c r="T431" s="15"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="22"/>
+      <c r="C432" s="22"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="22"/>
+      <c r="C433" s="22"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="22"/>
+      <c r="C434" s="22"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="22"/>
+      <c r="C435" s="22"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="22"/>
+      <c r="C436" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="251">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="J4:J20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="B365:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="B378:C378"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B383:C383"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B396:C396"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B404:C404"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="B420:C420"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="B422:C422"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="B428:C428"/>
+    <mergeCell ref="B429:C429"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="B432:C432"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="B435:C435"/>
+    <mergeCell ref="B436:C436"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:XFD436"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E223" activeCellId="0" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23238,7 +29112,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="0" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -23246,7 +29120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -44750,7 +50624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
